--- a/data/mall-swarm/mall-monitor_structure.xlsx
+++ b/data/mall-swarm/mall-monitor_structure.xlsx
@@ -15,12 +15,14 @@
     <sheet name="interfaceToInterfaceRelations" r:id="rId9" sheetId="7"/>
     <sheet name="fieldClassRelations" r:id="rId10" sheetId="8"/>
     <sheet name="fieldInterfaceRelations" r:id="rId11" sheetId="9"/>
+    <sheet name="classNumberOfLines" r:id="rId12" sheetId="10"/>
+    <sheet name="methodNumberOfLines" r:id="rId13" sheetId="11"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="51">
   <si>
     <t>Class Name</t>
   </si>
@@ -158,6 +160,21 @@
   </si>
   <si>
     <t>Target Field Name</t>
+  </si>
+  <si>
+    <t>Number of Lines</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
 </sst>
 </file>
@@ -409,36 +426,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D2"/>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -449,13 +439,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>32</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -463,6 +447,122 @@
         <v>4</v>
       </c>
       <c r="B2" t="s" s="0">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>33</v>
       </c>
       <c r="C2" t="s" s="0">

--- a/data/mall-swarm/mall-monitor_structure.xlsx
+++ b/data/mall-swarm/mall-monitor_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="53">
   <si>
     <t>Class Name</t>
   </si>
@@ -165,16 +165,22 @@
     <t>Number of Lines</t>
   </si>
   <si>
-    <t>13</t>
+    <t>10</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
   <si>
     <t>6</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>3</t>
+    <t>SecuritySecureConfig(de.codecentric.boot.admin.server.config.AdminServerProperties)</t>
+  </si>
+  <si>
+    <t>MallMonitorApplication()</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
 </sst>
 </file>
@@ -465,7 +471,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -495,13 +501,35 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="C3" t="s" s="0">
-        <v>50</v>
+      <c r="C4" t="s" s="0">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/data/mall-swarm/mall-monitor_structure.xlsx
+++ b/data/mall-swarm/mall-monitor_structure.xlsx
@@ -180,7 +180,7 @@
     <t>MallMonitorApplication()</t>
   </si>
   <si>
-    <t>0</t>
+    <t>1</t>
   </si>
 </sst>
 </file>

--- a/data/mall-swarm/mall-monitor_structure.xlsx
+++ b/data/mall-swarm/mall-monitor_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="52">
   <si>
     <t>Class Name</t>
   </si>
@@ -39,39 +39,60 @@
     <t>com.macro.mall.config.SecuritySecureConfig</t>
   </si>
   <si>
+    <t>SecuritySecureConfig(de.codecentric.boot.admin.server.config.AdminServerProperties)</t>
+  </si>
+  <si>
+    <t>public</t>
+  </si>
+  <si>
+    <t>void</t>
+  </si>
+  <si>
     <t>configure(org.springframework.security.config.annotation.web.builders.HttpSecurity)</t>
   </si>
   <si>
     <t>protected</t>
   </si>
   <si>
-    <t>void</t>
-  </si>
-  <si>
     <t>com.macro.mall.MallMonitorApplication</t>
   </si>
   <si>
     <t>equals(java.lang.Object)</t>
   </si>
   <si>
-    <t>public</t>
-  </si>
-  <si>
     <t>boolean</t>
   </si>
   <si>
     <t>finalize()</t>
   </si>
   <si>
+    <t>toString()</t>
+  </si>
+  <si>
+    <t>java.lang.String</t>
+  </si>
+  <si>
+    <t>getClass()</t>
+  </si>
+  <si>
+    <t>java.lang.Class</t>
+  </si>
+  <si>
+    <t>notifyAll()</t>
+  </si>
+  <si>
+    <t>hashCode()</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>wait()</t>
+  </si>
+  <si>
     <t>notify()</t>
   </si>
   <si>
-    <t>toString()</t>
-  </si>
-  <si>
-    <t>java.lang.String</t>
-  </si>
-  <si>
     <t>main(java.lang.String[])</t>
   </si>
   <si>
@@ -81,28 +102,13 @@
     <t>wait(long, int)</t>
   </si>
   <si>
-    <t>getClass()</t>
-  </si>
-  <si>
-    <t>java.lang.Class</t>
-  </si>
-  <si>
     <t>clone()</t>
   </si>
   <si>
     <t>java.lang.Object</t>
   </si>
   <si>
-    <t>notifyAll()</t>
-  </si>
-  <si>
-    <t>hashCode()</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>wait()</t>
+    <t>MallMonitorApplication()</t>
   </si>
   <si>
     <t>Interface Name</t>
@@ -172,15 +178,6 @@
   </si>
   <si>
     <t>6</t>
-  </si>
-  <si>
-    <t>SecuritySecureConfig(de.codecentric.boot.admin.server.config.AdminServerProperties)</t>
-  </si>
-  <si>
-    <t>MallMonitorApplication()</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -225,7 +222,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -261,41 +258,41 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="C3" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="C3" t="s" s="0">
-        <v>10</v>
-      </c>
       <c r="D3" t="s" s="0">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s" s="0">
         <v>12</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s" s="0">
         <v>13</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s" s="0">
         <v>7</v>
@@ -303,13 +300,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s" s="0">
         <v>14</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s" s="0">
         <v>15</v>
@@ -317,27 +314,27 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s" s="0">
         <v>16</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s" s="0">
         <v>7</v>
@@ -345,55 +342,55 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s" s="0">
         <v>23</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D12" t="s" s="0">
         <v>7</v>
@@ -401,29 +398,57 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="C14" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="D14" t="s" s="0">
+      <c r="C15" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s" s="0">
         <v>7</v>
       </c>
     </row>
@@ -445,7 +470,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2">
@@ -453,39 +478,39 @@
         <v>4</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s" s="0">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="0">
         <v>48</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -493,44 +518,22 @@
         <v>4</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="C3" t="s" s="0">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>51</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>52</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -547,14 +550,14 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="C1" t="s" s="0">
         <v>29</v>
       </c>
+      <c r="B1" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>31</v>
+      </c>
       <c r="D1" t="s" s="0">
         <v>3</v>
       </c>
@@ -577,13 +580,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="D1" t="s" s="0">
         <v>32</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>34</v>
       </c>
     </row>
     <row r="2">
@@ -591,10 +594,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s" s="0">
         <v>15</v>
@@ -615,27 +618,87 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="C1" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="B1" t="s" s="0">
         <v>38</v>
       </c>
+      <c r="C1" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>40</v>
+      </c>
       <c r="E1" t="s" s="0">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s" s="0">
         <v>39</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+      <c r="D1" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E1"/>
   <sheetViews>
@@ -645,27 +708,57 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>40</v>
-      </c>
-      <c r="D1" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="E1" t="s" s="0">
         <v>41</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>47</v>
+      </c>
       <c r="E1" t="s" s="0">
-        <v>39</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E1"/>
   <sheetViews>
@@ -675,110 +768,20 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="C1" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="B1" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>38</v>
+      <c r="D1" t="s" s="0">
+        <v>47</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>39</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
-        <v>42</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>40</v>
-      </c>
-      <c r="D1" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="E1" t="s" s="0">
-        <v>39</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>44</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>45</v>
-      </c>
-      <c r="E1" t="s" s="0">
-        <v>39</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>44</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>40</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>45</v>
-      </c>
-      <c r="E1" t="s" s="0">
-        <v>39</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/data/mall-swarm/mall-monitor_structure.xlsx
+++ b/data/mall-swarm/mall-monitor_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="52">
   <si>
     <t>Class Name</t>
   </si>
@@ -496,7 +496,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -518,20 +518,31 @@
         <v>4</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="C3" t="s" s="0">
+      <c r="C4" t="s" s="0">
         <v>50</v>
       </c>
     </row>

--- a/data/mall-swarm/mall-monitor_structure.xlsx
+++ b/data/mall-swarm/mall-monitor_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="53">
   <si>
     <t>Class Name</t>
   </si>
@@ -178,6 +178,9 @@
   </si>
   <si>
     <t>6</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
@@ -496,7 +499,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -540,9 +543,20 @@
         <v>10</v>
       </c>
       <c r="B4" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="C4" t="s" s="0">
+      <c r="C5" t="s" s="0">
         <v>50</v>
       </c>
     </row>

--- a/data/mall-swarm/mall-monitor_structure.xlsx
+++ b/data/mall-swarm/mall-monitor_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="52">
   <si>
     <t>Class Name</t>
   </si>
@@ -178,9 +178,6 @@
   </si>
   <si>
     <t>6</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -499,7 +496,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -521,42 +518,20 @@
         <v>4</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s" s="0">
         <v>50</v>
       </c>
     </row>
